--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1951718.353206146</v>
+        <v>-1954578.185441415</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>167.9768738807956</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.396723986041382</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>184.7212504616193</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>126.132094942915</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>6.808510953770445</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443468</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>207.9230281198981</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>263.6787468769608</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489923</v>
+        <v>12.42254329489924</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9780130577772</v>
       </c>
       <c r="I5" t="n">
-        <v>99.4372018947643</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361381</v>
+        <v>382.6612299361351</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075475</v>
+        <v>97.35224439075479</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295527</v>
+        <v>46.46465121295546</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238399</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>81.94150540877776</v>
       </c>
       <c r="V6" t="n">
-        <v>21.06813989897491</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>123.6942058202348</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.1152538431697</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>23.58742309656875</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>162.7184270702348</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>20.27697994470579</v>
       </c>
       <c r="I9" t="n">
-        <v>34.62967577457658</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>145.1668905582694</v>
+        <v>142.1240905243785</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>73.9504633112418</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465696</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>123.3988099269029</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>40.37234576591526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>168.8409165481425</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>104.1233804225859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>5.623597659135302</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>45.66054613217656</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>177.4940462744517</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808205</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659128</v>
+        <v>563.5152269868771</v>
       </c>
       <c r="C2" t="n">
-        <v>210.8831693494281</v>
+        <v>374.0954419703921</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294335</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294335</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659128</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659128</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659128</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659128</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659128</v>
+        <v>563.5152269868771</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659128</v>
+        <v>563.5152269868771</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>423.7266524081203</v>
+        <v>319.3026855898758</v>
       </c>
       <c r="C3" t="n">
-        <v>249.2736231269933</v>
+        <v>319.3026855898758</v>
       </c>
       <c r="D3" t="n">
-        <v>249.2736231269933</v>
+        <v>319.3026855898758</v>
       </c>
       <c r="E3" t="n">
-        <v>90.0361681215378</v>
+        <v>319.3026855898758</v>
       </c>
       <c r="F3" t="n">
-        <v>90.0361681215378</v>
+        <v>319.3026855898758</v>
       </c>
       <c r="G3" t="n">
-        <v>90.0361681215378</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198758</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198758</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198758</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="X3" t="n">
-        <v>591.9419894281884</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="Y3" t="n">
-        <v>591.9419894281884</v>
+        <v>487.5180226099438</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.358968610296</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.358968610296</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.358968610296</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.358968610296</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.358968610296</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>709.3965921992922</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>725.3468614886976</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309539</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652805</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1144.118424859564</v>
+        <v>721.4812253798109</v>
       </c>
       <c r="C5" t="n">
-        <v>775.1559079191525</v>
+        <v>721.4812253798109</v>
       </c>
       <c r="D5" t="n">
-        <v>416.890209312402</v>
+        <v>363.2155267730603</v>
       </c>
       <c r="E5" t="n">
-        <v>150.5480407498152</v>
+        <v>363.2155267730603</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6025400006118</v>
+        <v>356.2700260238569</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0545164704105</v>
+        <v>343.7220024936556</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0545164704105</v>
+        <v>30.61289839489081</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489104</v>
+        <v>30.61289839489081</v>
       </c>
       <c r="J5" t="n">
-        <v>93.3858082712145</v>
+        <v>93.38580827121336</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235833</v>
+        <v>238.2046462235808</v>
       </c>
       <c r="L5" t="n">
-        <v>454.766982319062</v>
+        <v>454.7669823190581</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643057</v>
+        <v>727.4037457643</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453887</v>
+        <v>1009.065865453879</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831928</v>
+        <v>1261.696156831918</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855771</v>
+        <v>1442.80926485576</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744552</v>
+        <v>1530.64491974454</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744552</v>
+        <v>1530.64491974454</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744552</v>
+        <v>1530.64491974454</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744552</v>
+        <v>1318.030980991966</v>
       </c>
       <c r="U5" t="n">
-        <v>1530.644919744552</v>
+        <v>1318.030980991966</v>
       </c>
       <c r="V5" t="n">
-        <v>1530.644919744552</v>
+        <v>1318.030980991966</v>
       </c>
       <c r="W5" t="n">
-        <v>1530.644919744552</v>
+        <v>1318.030980991966</v>
       </c>
       <c r="X5" t="n">
-        <v>1530.644919744552</v>
+        <v>1318.030980991966</v>
       </c>
       <c r="Y5" t="n">
-        <v>1144.118424859564</v>
+        <v>931.5044861069807</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>630.5889125536119</v>
+        <v>805.0419418347389</v>
       </c>
       <c r="C6" t="n">
         <v>630.5889125536119</v>
       </c>
       <c r="D6" t="n">
-        <v>481.6545028923606</v>
+        <v>481.6545028923605</v>
       </c>
       <c r="E6" t="n">
-        <v>322.4170478869051</v>
+        <v>322.417047886905</v>
       </c>
       <c r="F6" t="n">
-        <v>175.8824899137901</v>
+        <v>175.88248991379</v>
       </c>
       <c r="G6" t="n">
-        <v>175.8824899137901</v>
+        <v>175.88248991379</v>
       </c>
       <c r="H6" t="n">
-        <v>77.5468895190883</v>
+        <v>77.54688951908824</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489104</v>
+        <v>30.61289839489081</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275255</v>
+        <v>49.18216652275184</v>
       </c>
       <c r="K6" t="n">
-        <v>159.074828147704</v>
+        <v>159.0748281477024</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543702</v>
+        <v>353.1616144543675</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642214</v>
+        <v>599.0086077642173</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621718</v>
+        <v>865.7710843621663</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970542</v>
+        <v>1087.586838970535</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422845</v>
+        <v>1246.280471422838</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680483</v>
+        <v>1302.443765680474</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680483</v>
+        <v>1251.938857051804</v>
       </c>
       <c r="S6" t="n">
-        <v>1302.443765680483</v>
+        <v>1251.938857051804</v>
       </c>
       <c r="T6" t="n">
-        <v>1302.443765680483</v>
+        <v>1056.026476237411</v>
       </c>
       <c r="U6" t="n">
-        <v>1074.322555694785</v>
+        <v>973.2572788548068</v>
       </c>
       <c r="V6" t="n">
-        <v>1053.041606301882</v>
+        <v>973.2572788548068</v>
       </c>
       <c r="W6" t="n">
-        <v>798.80424957368</v>
+        <v>973.2572788548068</v>
       </c>
       <c r="X6" t="n">
-        <v>798.80424957368</v>
+        <v>973.2572788548068</v>
       </c>
       <c r="Y6" t="n">
-        <v>798.80424957368</v>
+        <v>973.2572788548068</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489104</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489104</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489104</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489104</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489104</v>
+        <v>30.61289839489081</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489104</v>
+        <v>30.61289839489081</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489104</v>
+        <v>30.61289839489081</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489104</v>
+        <v>30.61289839489081</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489104</v>
+        <v>30.61289839489081</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713207</v>
+        <v>51.49054881713133</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363476</v>
+        <v>108.1125511363462</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055971</v>
+        <v>171.0707966055951</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221338</v>
+        <v>240.389561622131</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645225</v>
+        <v>284.1035717645192</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354665</v>
+        <v>302.4464881354626</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354665</v>
+        <v>302.4464881354626</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354665</v>
+        <v>302.4464881354626</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354665</v>
+        <v>302.4464881354626</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354665</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354665</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354665</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="W7" t="n">
-        <v>30.61289839489104</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="X7" t="n">
-        <v>30.61289839489104</v>
+        <v>177.5028458928012</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.61289839489104</v>
+        <v>177.5028458928012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>817.0561080821411</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="C8" t="n">
-        <v>448.0935911417294</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="D8" t="n">
-        <v>448.0935911417294</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348518</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428171</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2144.634147009128</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1891.026982671638</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1559.964095328067</v>
+        <v>1373.615777375507</v>
       </c>
       <c r="W8" t="n">
-        <v>1207.195440057953</v>
+        <v>1020.847122105393</v>
       </c>
       <c r="X8" t="n">
-        <v>1207.195440057953</v>
+        <v>856.4850745597009</v>
       </c>
       <c r="Y8" t="n">
-        <v>817.0561080821411</v>
+        <v>466.3457425838893</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>669.9310834421692</v>
+        <v>693.0104463829871</v>
       </c>
       <c r="C9" t="n">
-        <v>669.9310834421692</v>
+        <v>518.5574171018601</v>
       </c>
       <c r="D9" t="n">
-        <v>520.9966737809179</v>
+        <v>369.6230074406088</v>
       </c>
       <c r="E9" t="n">
-        <v>361.7592187754624</v>
+        <v>210.3855524351533</v>
       </c>
       <c r="F9" t="n">
-        <v>215.2246608023474</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="G9" t="n">
-        <v>78.34866701746333</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="H9" t="n">
-        <v>78.34866701746333</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4899,34 +4899,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.172048607646</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="V9" t="n">
-        <v>1132.019940375904</v>
+        <v>1531.074939101743</v>
       </c>
       <c r="W9" t="n">
-        <v>877.782583647702</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>669.9310834421692</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.9310834421692</v>
+        <v>861.2257834030552</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.70688273934482</v>
+        <v>376.7296596422368</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934482</v>
+        <v>376.7296596422368</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934482</v>
+        <v>376.7296596422368</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>376.7296596422368</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>229.8397121443264</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>208.3401055254756</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V10" t="n">
-        <v>208.3401055254756</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W10" t="n">
-        <v>208.3401055254756</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X10" t="n">
-        <v>61.70688273934482</v>
+        <v>376.7296596422368</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.70688273934482</v>
+        <v>376.7296596422368</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.547769317909</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>762.547769317909</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D13" t="n">
-        <v>762.547769317909</v>
+        <v>491.0125592675719</v>
       </c>
       <c r="E13" t="n">
-        <v>614.6346757355159</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>467.7447282376055</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>300.5486289524854</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5428,10 +5428,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.188536579448</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.19898568143</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978459</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5887,16 +5887,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,7 +6494,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,10 +6853,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,34 +7327,34 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345474</v>
@@ -7804,25 +7804,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>186.7061677398874</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4793217556700551</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>191.6251232364407</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.648459146963432e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>74.66500970697055</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16.89590291932097</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>211.7652975579127</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>117.6820817884485</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>42.31058222398332</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>220.0860577299019</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>109.0289520621393</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-3.501643547353501e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1326861.823621569</v>
+        <v>1326861.823621568</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716085</v>
+        <v>84626.07044716086</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26329,28 +26329,28 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996498</v>
+        <v>216004.0468996463</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960623</v>
+        <v>167084.5112960653</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742655</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854467</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838256</v>
+        <v>50221.67010838175</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064596</v>
+        <v>59784.02116064676</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515981</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969923</v>
+        <v>196327.1528969922</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468119</v>
+        <v>221112.0537468127</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="G4" t="n">
         <v>16046.583971892</v>
@@ -26442,22 +26442,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498551</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498551</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.4432349854</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498547</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790101</v>
+        <v>72511.97598790078</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760043.7853822904</v>
+        <v>-760403.8683980079</v>
       </c>
       <c r="C6" t="n">
-        <v>-406997.8554013273</v>
+        <v>-406997.8554013243</v>
       </c>
       <c r="D6" t="n">
-        <v>-323856.3620077969</v>
+        <v>-323856.3620077998</v>
       </c>
       <c r="E6" t="n">
-        <v>-617718.9964088139</v>
+        <v>-617753.7343342494</v>
       </c>
       <c r="F6" t="n">
-        <v>-16275.78883454837</v>
+        <v>-16310.52675998397</v>
       </c>
       <c r="G6" t="n">
-        <v>-16275.78883454834</v>
+        <v>-16310.52675998404</v>
       </c>
       <c r="H6" t="n">
-        <v>-16275.78883454834</v>
+        <v>-16310.52675998406</v>
       </c>
       <c r="I6" t="n">
-        <v>-16275.78883454834</v>
+        <v>-16310.52675998402</v>
       </c>
       <c r="J6" t="n">
-        <v>-65340.73356309292</v>
+        <v>-65375.47148852867</v>
       </c>
       <c r="K6" t="n">
-        <v>-66497.45894293093</v>
+        <v>-66532.19686836576</v>
       </c>
       <c r="L6" t="n">
-        <v>-84355.35901651137</v>
+        <v>-84355.35901651203</v>
       </c>
       <c r="M6" t="n">
-        <v>-181717.7184074635</v>
+        <v>-181717.7184074634</v>
       </c>
       <c r="N6" t="n">
+        <v>-24571.33785586533</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-24571.3378558656</v>
+      </c>
+      <c r="P6" t="n">
         <v>-24571.33785586538</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-24571.33785586536</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-24571.33785586536</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836612</v>
+        <v>716.4483122836587</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361381</v>
+        <v>382.6612299361351</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707566</v>
+        <v>167.9783713707538</v>
       </c>
       <c r="D3" t="n">
-        <v>137.262352254023</v>
+        <v>137.2623522540254</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.26483580399</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698182</v>
+        <v>195.135642769815</v>
       </c>
       <c r="D4" t="n">
-        <v>159.453726790025</v>
+        <v>159.4537267900281</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734855</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698182</v>
+        <v>195.135642769815</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900248</v>
+        <v>159.4537267900281</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734855</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698182</v>
+        <v>195.135642769815</v>
       </c>
       <c r="L4" t="n">
-        <v>159.453726790025</v>
+        <v>159.4537267900281</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734855</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>157.6158454809723</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>185.0098502168497</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,22 +27458,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>10.03169442286037</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>198.964474249707</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482795</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390158</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>174.8108135435825</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>118.251623195301</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476468</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724355</v>
+        <v>34.66253762724418</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926215</v>
+        <v>143.3876437926217</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.57670871991553</v>
+        <v>3.576708719918486</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238366</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>143.059033344203</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>143.8984924770626</v>
       </c>
       <c r="V6" t="n">
-        <v>211.7324472504503</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7405094023015</v>
+        <v>150.7405094023016</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037443</v>
+        <v>116.5978353037445</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037919</v>
+        <v>35.65413415037952</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461301</v>
+        <v>43.32130647461339</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106943</v>
+        <v>119.2023528106945</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443857</v>
+        <v>201.5013289443858</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4254139074074</v>
+        <v>98.73120808717262</v>
       </c>
       <c r="U7" t="n">
         <v>286.2485590306925</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>17.40774449342132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>184.4848347730351</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>207.0126736082343</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>74.22383331714936</v>
       </c>
       <c r="I9" t="n">
-        <v>1.669791804472275</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>80.54276483076774</v>
+        <v>83.58556486465864</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.204090620313795e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28804,16 +28804,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235822</v>
+        <v>2.880194220235811</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799011</v>
+        <v>29.49678905799001</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756416</v>
+        <v>111.0386876756412</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997403</v>
+        <v>244.4528841997394</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423227</v>
+        <v>366.3715055423214</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098648</v>
+        <v>454.5162494098632</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739836</v>
+        <v>505.7369033739818</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022286</v>
+        <v>513.9202552022268</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247586</v>
+        <v>485.2803239247569</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126868</v>
+        <v>414.1755291126853</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004913</v>
+        <v>311.0285736004902</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868886</v>
+        <v>180.9230001868879</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362385</v>
+        <v>65.63242579362363</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908232</v>
+        <v>12.60805019908227</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188657</v>
+        <v>0.2304155376188649</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044101</v>
+        <v>1.541039766044096</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574172</v>
+        <v>14.88319984574167</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704472</v>
+        <v>53.05772878704454</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594561</v>
+        <v>145.5944631594556</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844109</v>
+        <v>248.84412748441</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754967</v>
+        <v>334.6016386754955</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945953</v>
+        <v>390.4643301945939</v>
       </c>
       <c r="N6" t="n">
-        <v>400.79875915197</v>
+        <v>400.7987591519686</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306771</v>
+        <v>366.6525622306758</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510004</v>
+        <v>294.2710058509994</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462611</v>
+        <v>196.7123743462604</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158029</v>
+        <v>95.67964442157997</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963493</v>
+        <v>28.62413775963483</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572494</v>
+        <v>6.211471688572472</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344804</v>
+        <v>0.10138419513448</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970536</v>
+        <v>1.291955972970532</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513805</v>
+        <v>11.48666310513801</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351396</v>
+        <v>38.85263962351382</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901692</v>
+        <v>91.34128728901659</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505768</v>
+        <v>150.1017939505763</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178196</v>
+        <v>192.0786180178189</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902814</v>
+        <v>202.5199712902807</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273914</v>
+        <v>197.7044990273907</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522355</v>
+        <v>182.6121042522349</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036365</v>
+        <v>156.2562024036359</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548328</v>
+        <v>108.1836951548324</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647519</v>
+        <v>58.09103856647499</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258652</v>
+        <v>22.51526909258644</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874108</v>
+        <v>5.520175520874089</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839298</v>
+        <v>0.07047032579839273</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31528,10 +31528,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31540,22 +31540,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31607,19 +31607,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31628,10 +31628,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31677,22 +31677,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31704,13 +31704,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286967</v>
+        <v>530.5785304507785</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32099,7 +32099,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727256</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.406979673054</v>
+        <v>63.40697967305314</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973421</v>
+        <v>146.2816544973409</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398776</v>
+        <v>218.749834439876</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467108</v>
+        <v>275.3906701467091</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056377</v>
+        <v>284.5071916056359</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030719</v>
+        <v>255.1821125030702</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574172</v>
+        <v>182.9425333574158</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604183</v>
+        <v>88.72288372604069</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.7568364927894</v>
+        <v>18.75683649278892</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100519</v>
+        <v>111.002688510051</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956225</v>
+        <v>196.0472588956213</v>
       </c>
       <c r="M6" t="n">
-        <v>248.330296272577</v>
+        <v>248.3302962725756</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686367</v>
+        <v>269.4570470686353</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862326</v>
+        <v>224.0563177862313</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366701</v>
+        <v>160.2965984366691</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023958</v>
+        <v>56.7306002602389</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004144</v>
+        <v>21.08853578004093</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658131</v>
+        <v>57.19394173658063</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267635</v>
+        <v>63.59418734267567</v>
       </c>
       <c r="N7" t="n">
-        <v>70.0189545621582</v>
+        <v>70.01895456215752</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039274</v>
+        <v>44.15556580039208</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448884</v>
+        <v>18.5281983544883</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35188,7 +35188,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35258,7 +35258,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35270,7 +35270,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066783</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507074</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
